--- a/Benchmarks-results/Prometheus/całka wykresy/całka - zmienny GWS 1 GPU.xlsx
+++ b/Benchmarks-results/Prometheus/całka wykresy/całka - zmienny GWS 1 GPU.xlsx
@@ -1853,11 +1853,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70985984"/>
-        <c:axId val="70988160"/>
+        <c:axId val="66180224"/>
+        <c:axId val="66181760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70985984"/>
+        <c:axId val="66180224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +1874,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70988160"/>
+        <c:crossAx val="66181760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1882,7 +1882,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70988160"/>
+        <c:axId val="66181760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +1890,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70985984"/>
+        <c:crossAx val="66180224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1903,7 +1903,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2029,25 +2029,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71171072"/>
-        <c:axId val="71385856"/>
+        <c:axId val="66216704"/>
+        <c:axId val="66218240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71171072"/>
+        <c:axId val="66216704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71385856"/>
+        <c:crossAx val="66218240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71385856"/>
+        <c:axId val="66218240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2055,7 +2055,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71171072"/>
+        <c:crossAx val="66216704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2068,7 +2068,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2186,25 +2186,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71687552"/>
-        <c:axId val="71780224"/>
+        <c:axId val="66234624"/>
+        <c:axId val="66252800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71687552"/>
+        <c:axId val="66234624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71780224"/>
+        <c:crossAx val="66252800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71780224"/>
+        <c:axId val="66252800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,7 +2212,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71687552"/>
+        <c:crossAx val="66234624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2225,7 +2225,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2614,7 +2614,7 @@
   <dimension ref="B1:CZ135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:E37"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Benchmarks-results/Prometheus/całka wykresy/całka - zmienny GWS 1 GPU.xlsx
+++ b/Benchmarks-results/Prometheus/całka wykresy/całka - zmienny GWS 1 GPU.xlsx
@@ -198,2132 +198,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pl-PL"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$O$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>power [W]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Arkusz1!$M$5:$M$135</c:f>
-              <c:numCache>
-                <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="131"/>
-                <c:pt idx="0">
-                  <c:v>0.63238425925925923</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.63239583333333338</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63240740740740742</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63241898148148146</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6324305555555555</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.63244212962962965</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63245370370370368</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.63246527777777783</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.63247685185185187</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.63248842592592591</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.63249999999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6325115740740741</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.63252314814814814</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.63253472222222229</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.63254629629629633</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.63255787037037037</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.63258101851851845</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.6325925925925926</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.63260416666666663</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.63261574074074078</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.63262731481481482</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.63263888888888886</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.6326504629629629</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.63266203703703705</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.63267361111111109</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.63268518518518524</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.63269675925925928</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.63270833333333332</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.63271990740740736</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.63273148148148151</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.63274305555555554</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.63275462962962969</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.63276620370370373</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.63277777777777777</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.63278935185185181</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.63280092592592596</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.6328125</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.63282407407407404</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.63283564814814819</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.63284722222222223</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.63285879629629627</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.63287037037037031</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.63288194444444446</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.63289351851851849</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.63290509259259264</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.63291666666666668</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.63292824074074072</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.63293981481481476</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.63295138888888891</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.63296296296296295</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.6329745370370371</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.63298611111111114</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.63299768518518518</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.63300925925925922</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.63302083333333337</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.6330324074074074</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.63304398148148155</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.63305555555555559</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.63306712962962963</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.63307870370370367</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.63309027777777771</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.63310185185185186</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.6331134259259259</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.63312500000000005</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.63313657407407409</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.63314814814814813</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.63315972222222217</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.63317129629629632</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.63318287037037035</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.6331944444444445</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.63320601851851854</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.63321759259259258</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.63322916666666662</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.63324074074074077</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.63325231481481481</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.63326388888888896</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.633275462962963</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.63328703703703704</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.63329861111111108</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.63331018518518511</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.63332175925925926</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.6333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.63334490740740745</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.63335648148148149</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.63336805555555553</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.63337962962962957</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.63339120370370372</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.63340277777777776</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.63341435185185191</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.63342592592592595</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.63343749999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.63344907407407403</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.63346064814814818</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.63347222222222221</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.63348379629629636</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.6334953703703704</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.63350694444444444</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.63351851851851848</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.63353009259259252</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.63354166666666667</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.63355324074074071</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.63356481481481486</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.6335763888888889</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.63358796296296294</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.63359953703703698</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.63361111111111112</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.63362268518518516</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.63363425925925931</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.63364583333333335</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.63365740740740739</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.63366898148148143</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.63368055555555558</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.63369212962962962</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.63370370370370377</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.63371527777777781</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.63372685185185185</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.63373842592592589</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.63375000000000004</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.63376157407407407</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.63377314814814811</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.63378472222222226</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.6337962962962963</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.63380787037037034</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.63381944444444438</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.63383101851851853</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.63384259259259257</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.63385416666666672</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.63386574074074076</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.6338773148148148</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.63388888888888884</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.63390046296296299</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$O$5:$O$135</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="131"/>
-                <c:pt idx="0">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>87</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$P$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>temp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Arkusz1!$M$5:$M$135</c:f>
-              <c:numCache>
-                <c:formatCode>hh:mm:ss</c:formatCode>
-                <c:ptCount val="131"/>
-                <c:pt idx="0">
-                  <c:v>0.63238425925925923</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.63239583333333338</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63240740740740742</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63241898148148146</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6324305555555555</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.63244212962962965</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63245370370370368</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.63246527777777783</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.63247685185185187</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.63248842592592591</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.63249999999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6325115740740741</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.63252314814814814</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.63253472222222229</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.63254629629629633</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.63255787037037037</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.63258101851851845</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.6325925925925926</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.63260416666666663</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.63261574074074078</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.63262731481481482</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.63263888888888886</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.6326504629629629</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.63266203703703705</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.63267361111111109</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.63268518518518524</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.63269675925925928</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.63270833333333332</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.63271990740740736</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.63273148148148151</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.63274305555555554</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.63275462962962969</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.63276620370370373</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.63277777777777777</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.63278935185185181</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.63280092592592596</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.6328125</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.63282407407407404</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.63283564814814819</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.63284722222222223</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.63285879629629627</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.63287037037037031</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.63288194444444446</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.63289351851851849</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.63290509259259264</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.63291666666666668</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.63292824074074072</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.63293981481481476</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.63295138888888891</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.63296296296296295</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.6329745370370371</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.63298611111111114</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.63299768518518518</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.63300925925925922</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.63302083333333337</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.6330324074074074</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.63304398148148155</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.63305555555555559</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.63306712962962963</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.63307870370370367</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.63309027777777771</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.63310185185185186</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.6331134259259259</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.63312500000000005</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.63313657407407409</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.63314814814814813</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.63315972222222217</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.63317129629629632</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.63318287037037035</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.6331944444444445</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.63320601851851854</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.63321759259259258</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.63322916666666662</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.63324074074074077</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.63325231481481481</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.63326388888888896</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.633275462962963</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.63328703703703704</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.63329861111111108</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.63331018518518511</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.63332175925925926</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.6333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.63334490740740745</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.63335648148148149</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.63336805555555553</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.63337962962962957</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.63339120370370372</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.63340277777777776</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.63341435185185191</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.63342592592592595</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.63343749999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.63344907407407403</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.63346064814814818</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.63347222222222221</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.63348379629629636</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.6334953703703704</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.63350694444444444</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.63351851851851848</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.63353009259259252</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.63354166666666667</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.63355324074074071</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.63356481481481486</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.6335763888888889</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.63358796296296294</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.63359953703703698</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.63361111111111112</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.63362268518518516</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.63363425925925931</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.63364583333333335</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.63365740740740739</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.63366898148148143</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.63368055555555558</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.63369212962962962</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.63370370370370377</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.63371527777777781</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.63372685185185185</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.63373842592592589</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.63375000000000004</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.63376157407407407</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.63377314814814811</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.63378472222222226</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.6337962962962963</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.63380787037037034</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.63381944444444438</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.63383101851851853</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.63384259259259257</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.63385416666666672</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.63386574074074076</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.6338773148148148</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.63388888888888884</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.63390046296296299</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$P$5:$P$135</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="131"/>
-                <c:pt idx="0">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="66180224"/>
-        <c:axId val="66181760"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="66180224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="hh:mm:ss" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="960" baseline="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="66181760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="66181760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66180224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pl-PL"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>t [s]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Arkusz1!$B$5:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>536870912</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>268435456</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>134217728</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>67108864</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33554432</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16777216</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8388608</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4194304</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>524288</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>262144</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000000</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>132.51903302400001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.600740545999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.646701516</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.166549789000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.306908883</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.148561609</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.010391404</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.039786851000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.963811723999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.010572836</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.003288191999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.965948655</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="66216704"/>
-        <c:axId val="66218240"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="66216704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66218240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="66218240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66216704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pl-PL"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>zużycie energii [J]</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Arkusz1!$D$26:$D$37</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>132.51903302400001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.600740545999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.646701516</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.166549789000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.306908883</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.148561609</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.010391404</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.039786851000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.963811723999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.010572836</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.003288191999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.965948655</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$E$26:$E$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>11957.060842318169</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6203.9598920728486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3317.7686888807275</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1907.5066206718238</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1383.5544869561818</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1338.8408986808181</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1222.1534458440001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1217.3874045693635</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1215.9863912072726</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1215.1668566276362</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1197.357815074909</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1192.2976901254547</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="66234624"/>
-        <c:axId val="66252800"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="66234624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66252800"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="66252800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66234624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Wykres 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Wykres 20"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Wykres 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2614,7 +488,7 @@
   <dimension ref="B1:CZ135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="AE86" sqref="AE86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9366,7 +7240,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
